--- a/sub/saif/math.xlsx
+++ b/sub/saif/math.xlsx
@@ -292,7 +292,7 @@
           <t>01/03/20</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>13/03/20</t>
         </is>
@@ -317,7 +317,7 @@
           <t>Absent</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -360,41 +360,41 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Ram</t>
+          <t>Rajesh</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Rajesh</t>
+          <t>Vikas</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Vikas</t>
+          <t>Ramesh</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
+      <c r="A8" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>Ramesh</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dev</t>
         </is>
       </c>
     </row>
